--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_QuyetToanDuAnHoanThanh.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_QuyetToanDuAnHoanThanh.xlsx
@@ -9,21 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__dt__">Sheet1!$B$12:$R$12</definedName>
-    <definedName name="I_listDataKPDC_I">Sheet1!$I$12:$J$12</definedName>
-    <definedName name="I_listDataQTDD_I">Sheet1!$M$12:$N$12</definedName>
-    <definedName name="I_listDataTTCP_I">Sheet1!$F$12</definedName>
+    <definedName name="__dt__">Sheet1!$B$13:$R$13</definedName>
+    <definedName name="I_dtColumn_I">Sheet1!$C$12</definedName>
+    <definedName name="I_listDataKPDC_I">Sheet1!$I$13:$J$13</definedName>
+    <definedName name="I_listDataQTDD_I">Sheet1!$M$13:$N$13</definedName>
+    <definedName name="I_listDataTTCP_I">Sheet1!$F$13</definedName>
     <definedName name="I_lstGiaiDoan_I">Sheet1!$F$9:$F$11</definedName>
     <definedName name="I_lstGiaiDoan2_I">Sheet1!$I$9:$J$11</definedName>
     <definedName name="I_lstGiaiDoan3_I">Sheet1!$M$9:$N$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$AO$26</definedName>
+    <definedName name="I_sumDataKPDC_I">Sheet1!$I$14:$J$14</definedName>
+    <definedName name="I_sumDataQTDD_I">Sheet1!$M$14:$N$14</definedName>
+    <definedName name="I_sumDataTTCP_I">Sheet1!$F$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$AG$27</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$9:$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -77,12 +81,6 @@
     <t>AltFormat</t>
   </si>
   <si>
-    <t>ĐƠN VỊ</t>
-  </si>
-  <si>
-    <t>TỐI MẬT</t>
-  </si>
-  <si>
     <t>Chương trình, danh mục,VKTBT, nội dung chi</t>
   </si>
   <si>
@@ -102,9 +100,6 @@
   </si>
   <si>
     <t>Cộng</t>
-  </si>
-  <si>
-    <t>Thuyết minh:........................................</t>
   </si>
   <si>
     <t>We have kept this sheet intentionally easy, without comments, images, etc, to reduce its size to a minimum</t>
@@ -157,9 +152,6 @@
   </si>
   <si>
     <t>Kinh phí thừa nộp trả NSNN</t>
-  </si>
-  <si>
-    <t>Người lập</t>
   </si>
   <si>
     <r>
@@ -177,9 +169,6 @@
     </r>
   </si>
   <si>
-    <t>ĐON VỊ CẤP TRÊN</t>
-  </si>
-  <si>
     <t>&lt;#lstGiaiDoan.giaiDoan&gt;</t>
   </si>
   <si>
@@ -231,7 +220,97 @@
     <t>&lt;#listDataQTDD.valueVND&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
-    <t>TRƯỞNG PHÒNG (BAN) TÀI CHÍNH</t>
+    <t>Thuyết minh:</t>
+  </si>
+  <si>
+    <t>&lt;#txtDonViCapTren&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#txtDonViCapDuoi&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten3&gt;</t>
+  </si>
+  <si>
+    <t>Ngày … tháng … năm …</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>&lt;#dtColumn.giaiDoan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sumDataTTCP.value&gt;&lt;#AltFormat&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sumDataKPDC.valueUSD&gt;&lt;#AltFormat&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sumDataKPDC.valueVND&gt;&lt;#AltFormat&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fHopDong_USD;0&gt;;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fHopDong_VND;0&gt;;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.sumTTCP;0&gt;;&lt;#dt.SLevel;&gt;=0)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.sumKPDCUSD;0&gt;;&lt;#dt.SLevel;&gt;=0)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.sumKPDCVND;0&gt;;&lt;#dt.SLevel;&gt;=0)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sumDataQTDD.valueUSD&gt;&lt;#AltFormat&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sumDataQTDD.valueVND&gt;&lt;#AltFormat&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.sumQTDDUSD;0&gt;;&lt;#dt.SLevel;&gt;=0)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.sumQTDDVND;0&gt;;&lt;#dt.SLevel;&gt;=0)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fSoSanhKinhPhi_USD;0&gt;;&lt;#dt.SLevel;&gt;=3)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fSoSanhKinhPhi_VND;0&gt;;&lt;#dt.SLevel;&gt;=3)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fThuaTraNSNN_USD;0&gt;;&lt;#dt.SLevel;&gt;=3)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fThuaTraNSNN_VND;0&gt;;&lt;#dt.SLevel;&gt;=3)&gt;</t>
   </si>
 </sst>
 </file>
@@ -241,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +402,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +440,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +548,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -454,18 +560,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -512,15 +612,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -530,29 +621,68 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -838,75 +968,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R26"/>
+  <dimension ref="B1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="55" zoomScaleNormal="33" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="33" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.77734375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="15.77734375" style="35" customWidth="1"/>
-    <col min="9" max="10" width="15.77734375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="15.77734375" style="35" customWidth="1"/>
-    <col min="13" max="41" width="15.77734375" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="38.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="22" style="33" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="33" customWidth="1"/>
+    <col min="13" max="14" width="22.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="1" customWidth="1"/>
+    <col min="19" max="41" width="15.7109375" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B2" s="33"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="31"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="45"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="42"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="P3" s="32"/>
-    </row>
-    <row r="4" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="46"/>
+      <c r="P3" s="30"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="43"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="5"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -914,385 +1055,498 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="47"/>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-    </row>
-    <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O8" s="11"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="10"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:18" ht="93.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="48" t="s">
+    <row r="9" spans="2:18" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="52"/>
+    </row>
+    <row r="10" spans="2:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+    </row>
+    <row r="11" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="52"/>
+      <c r="C11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="D11" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="38" t="s">
+      <c r="E11" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" s="33" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="50"/>
+    </row>
+    <row r="13" spans="2:18" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="B13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="48"/>
-    </row>
-    <row r="10" spans="2:18" ht="88.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-    </row>
-    <row r="11" spans="2:18" ht="88.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="48"/>
-      <c r="C11" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" s="4" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="42" t="s">
+      <c r="C14" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="2:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="35"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="34"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="33"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="35"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="32"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="35"/>
-      <c r="I20" s="3"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="N17" s="29"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="32"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="P18" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+    </row>
+    <row r="19" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="F19" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="P19" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="F20" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="35"/>
-      <c r="M21" s="9"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+    </row>
+    <row r="21" spans="2:18" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="36"/>
-      <c r="M22" s="9"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="48"/>
+      <c r="F22" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="36"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B24" s="33"/>
-      <c r="D24" s="6"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B25" s="35" t="s">
-        <v>41</v>
-      </c>
+      <c r="P22" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="34"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="34"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="31"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="35"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B26" s="36"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="D26" s="6"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="E26" s="33"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="34"/>
+      <c r="D27" s="6"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="M10:N10"/>
+  <mergeCells count="31">
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
@@ -1301,11 +1555,11 @@
     <mergeCell ref="B7:N7"/>
     <mergeCell ref="C9:D10"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="27" orientation="landscape" r:id="rId1"/>
@@ -1323,240 +1577,240 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="15" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="15"/>
-    <col min="4" max="4" width="17.33203125" style="15" customWidth="1"/>
-    <col min="5" max="7" width="9.109375" style="15"/>
-    <col min="8" max="8" width="21.77734375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="15"/>
-    <col min="11" max="11" width="14.21875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="15"/>
-    <col min="13" max="13" width="23.88671875" style="15" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" style="15" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="25" style="13" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="13"/>
+    <col min="4" max="4" width="17.28515625" style="13" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="13"/>
+    <col min="8" max="8" width="21.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="13"/>
+    <col min="11" max="11" width="14.28515625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="13"/>
+    <col min="13" max="13" width="23.85546875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="19" t="s">
+      <c r="L9" s="12"/>
+      <c r="M9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="1:14" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="I10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="21" t="s">
+      <c r="I11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I14" s="27"/>
+      <c r="I13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I14" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
